--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
       <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>2200</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,23 +1022,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1021,23 +1060,29 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3600</v>
       </c>
       <c r="J17" s="3">
         <v>1600</v>
       </c>
       <c r="K17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="3">
         <v>3500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3600</v>
       </c>
       <c r="J18" s="3">
         <v>-1600</v>
       </c>
       <c r="K18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2500</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,32 +1288,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,66 +1341,72 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,32 +1924,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,46 +2327,52 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,34 +2451,34 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2289,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,46 +2607,52 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2591,17 +2830,17 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,196 +3009,222 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,41 +3270,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,44 +4614,46 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,19 +4769,25 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4339,32 +4798,38 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>900</v>
+      </c>
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
-        <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>2200</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,29 +1062,35 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1066,23 +1106,29 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1204,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3600</v>
       </c>
       <c r="L17" s="3">
         <v>1600</v>
       </c>
       <c r="M17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O17" s="3">
         <v>3500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2500</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-3600</v>
       </c>
       <c r="L18" s="3">
         <v>-1600</v>
       </c>
       <c r="M18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2500</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,38 +1356,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,25 +1474,25 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F23" s="3">
         <v>9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F26" s="3">
         <v>9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,38 +2064,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G32" s="3">
         <v>8900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>8600</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,40 +2531,40 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,16 +2631,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2457,34 +2655,34 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2492,61 +2690,73 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2808,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2836,17 +3076,17 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3271,246 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>10600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,47 +3562,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,50 +5056,52 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,25 +5229,31 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4804,32 +5264,38 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1100</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -959,7 +959,7 @@
         <v>5200</v>
       </c>
       <c r="E12" s="3">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
@@ -971,7 +971,7 @@
         <v>1100</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
@@ -1215,7 +1215,7 @@
         <v>7900</v>
       </c>
       <c r="E17" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="F17" s="3">
         <v>1200</v>
@@ -1227,7 +1227,7 @@
         <v>2300</v>
       </c>
       <c r="I17" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="J17" s="3">
         <v>1200</v>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3400</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
@@ -1286,7 +1286,7 @@
         <v>-2300</v>
       </c>
       <c r="I18" s="3">
-        <v>-2400</v>
+        <v>-3100</v>
       </c>
       <c r="J18" s="3">
         <v>-1200</v>
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-22600</v>
+        <v>-23300</v>
       </c>
       <c r="F21" s="3">
         <v>9600</v>
@@ -1427,7 +1427,7 @@
         <v>-4200</v>
       </c>
       <c r="I21" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="J21" s="3">
         <v>-1700</v>
@@ -1533,7 +1533,7 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F23" s="3">
         <v>9500</v>
@@ -1545,7 +1545,7 @@
         <v>-4200</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J23" s="3">
         <v>-1800</v>
@@ -1710,7 +1710,7 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F26" s="3">
         <v>9500</v>
@@ -1722,7 +1722,7 @@
         <v>-4200</v>
       </c>
       <c r="I26" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J26" s="3">
         <v>-1800</v>
@@ -1769,7 +1769,7 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F27" s="3">
         <v>9500</v>
@@ -1781,7 +1781,7 @@
         <v>-4200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J27" s="3">
         <v>-1800</v>
@@ -2123,7 +2123,7 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F33" s="3">
         <v>9500</v>
@@ -2135,7 +2135,7 @@
         <v>-4200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J33" s="3">
         <v>-1800</v>
@@ -2241,7 +2241,7 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F35" s="3">
         <v>9500</v>
@@ -2253,7 +2253,7 @@
         <v>-4200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J35" s="3">
         <v>-1800</v>
@@ -3282,7 +3282,7 @@
         <v>3300</v>
       </c>
       <c r="E57" s="3">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
@@ -3294,7 +3294,7 @@
         <v>2000</v>
       </c>
       <c r="I57" s="3">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
@@ -3400,7 +3400,7 @@
         <v>11600</v>
       </c>
       <c r="E59" s="3">
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="F59" s="3">
         <v>6400</v>
@@ -3459,7 +3459,7 @@
         <v>16500</v>
       </c>
       <c r="E60" s="3">
-        <v>13100</v>
+        <v>15100</v>
       </c>
       <c r="F60" s="3">
         <v>10600</v>
@@ -3471,7 +3471,7 @@
         <v>7000</v>
       </c>
       <c r="I60" s="3">
-        <v>7100</v>
+        <v>8300</v>
       </c>
       <c r="J60" s="3">
         <v>5600</v>
@@ -3813,7 +3813,7 @@
         <v>41800</v>
       </c>
       <c r="E66" s="3">
-        <v>31900</v>
+        <v>34000</v>
       </c>
       <c r="F66" s="3">
         <v>11200</v>
@@ -3825,7 +3825,7 @@
         <v>9600</v>
       </c>
       <c r="I66" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="J66" s="3">
         <v>5700</v>
@@ -4131,7 +4131,7 @@
         <v>-64200</v>
       </c>
       <c r="E72" s="3">
-        <v>-62000</v>
+        <v>-63900</v>
       </c>
       <c r="F72" s="3">
         <v>-39300</v>
@@ -4143,7 +4143,7 @@
         <v>-35400</v>
       </c>
       <c r="I72" s="3">
-        <v>-31400</v>
+        <v>-32600</v>
       </c>
       <c r="J72" s="3">
         <v>-29400</v>
@@ -4367,7 +4367,7 @@
         <v>-32300</v>
       </c>
       <c r="E76" s="3">
-        <v>-31200</v>
+        <v>-33200</v>
       </c>
       <c r="F76" s="3">
         <v>-10600</v>
@@ -4379,7 +4379,7 @@
         <v>-8600</v>
       </c>
       <c r="I76" s="3">
-        <v>-7000</v>
+        <v>-8200</v>
       </c>
       <c r="J76" s="3">
         <v>-5400</v>
@@ -4549,7 +4549,7 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="F81" s="3">
         <v>9500</v>
@@ -4561,7 +4561,7 @@
         <v>-4200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="J81" s="3">
         <v>-1800</v>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>2200</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,35 +1101,41 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1112,23 +1151,29 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3600</v>
       </c>
       <c r="N17" s="3">
         <v>1600</v>
       </c>
       <c r="O17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2500</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3600</v>
       </c>
       <c r="N18" s="3">
         <v>-1600</v>
       </c>
       <c r="O18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-2500</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,44 +1423,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-19200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>10700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-8900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,63 +1488,69 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-23300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-13300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2400</v>
       </c>
       <c r="R21" s="3">
         <v>-400</v>
       </c>
       <c r="S21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1480,25 +1559,25 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1524,67 +1603,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-23400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-23400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-23400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,44 +2203,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G32" s="3">
         <v>19200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-10700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>8900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F41" s="3">
         <v>8600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2537,40 +2722,40 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,23 +2828,29 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2661,34 +2858,34 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2696,67 +2893,79 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,58 +3038,64 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,16 +3283,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3082,17 +3321,17 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,244 +3532,270 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F59" s="3">
         <v>11600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F60" s="3">
         <v>16500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,53 +3853,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F62" s="3">
         <v>25300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>11500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F66" s="3">
         <v>41800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-64200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-39300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-32300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-33200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,16 +5017,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,56 +5497,58 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5688,37 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5270,32 +5729,38 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>13200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1100</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>7200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,23 +1124,26 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1131,14 +1151,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1157,11 +1177,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,47 +1457,47 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,22 +1596,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1580,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,47 +2273,47 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2728,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2737,28 +2830,28 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,26 +2930,29 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2864,31 +2963,31 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2899,64 +2998,67 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,25 +3134,28 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -3056,35 +3164,35 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +3421,7 @@
         <v>2100</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3327,14 +3447,14 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,64 +3542,67 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,250 +3664,260 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3200</v>
       </c>
       <c r="K59" s="3">
         <v>3200</v>
       </c>
       <c r="L59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -3786,16 +3926,19 @@
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,34 +4002,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E62" s="3">
         <v>17400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3895,19 +4041,19 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2800</v>
       </c>
       <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>2800</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,55 +4274,58 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E66" s="3">
         <v>31300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
@@ -4176,16 +4334,19 @@
         <v>400</v>
       </c>
       <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-22700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-32300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-33200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-21800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>700</v>
       </c>
       <c r="T76" s="3">
         <v>700</v>
       </c>
       <c r="U76" s="3">
+        <v>700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,7 +5230,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,37 +5719,38 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5537,21 +5758,21 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,34 +5921,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5735,32 +5965,35 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>7200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,26 +1144,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1154,14 +1174,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1180,11 +1200,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1192,11 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,50 +1491,50 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F20" s="3">
         <v>10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,22 +1639,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1623,7 +1663,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,50 +2343,50 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2833,28 +2926,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,20 +3041,20 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2966,31 +3065,31 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3001,67 +3100,70 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,28 +3242,31 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3167,35 +3275,35 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3544,7 @@
         <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3450,14 +3570,14 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,67 +3668,70 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,253 +3805,262 @@
         <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E59" s="3">
         <v>12700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3200</v>
       </c>
       <c r="L59" s="3">
         <v>3200</v>
       </c>
       <c r="M59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E60" s="3">
         <v>15700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
@@ -3929,16 +4069,19 @@
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,37 +4148,40 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
         <v>12100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4044,19 +4190,19 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2800</v>
       </c>
       <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>2800</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,58 +4432,61 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E66" s="3">
         <v>27800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
@@ -4337,16 +4495,19 @@
         <v>400</v>
       </c>
       <c r="V66" s="3">
+        <v>400</v>
+      </c>
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-22400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-22700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-31500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-32300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-33200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>700</v>
       </c>
       <c r="U76" s="3">
         <v>700</v>
       </c>
       <c r="V76" s="3">
+        <v>700</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,7 +5432,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,40 +5940,41 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5761,21 +5982,21 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,37 +6151,40 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5968,32 +6198,35 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>7200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2200</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,29 +1163,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1177,14 +1196,14 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1203,11 +1222,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1215,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,53 +1524,53 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,75 +1598,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1642,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1666,7 +1705,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1695,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,53 +2412,53 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2929,28 +3021,28 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,32 +3127,35 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3068,31 +3166,31 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3103,70 +3201,73 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,31 +3349,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -3278,35 +3385,35 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>2100</v>
@@ -3547,7 +3666,7 @@
         <v>2100</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3573,14 +3692,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,70 +3793,73 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
@@ -3742,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>3000</v>
       </c>
       <c r="F57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,194 +4009,200 @@
         <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3200</v>
       </c>
       <c r="M59" s="3">
         <v>3200</v>
       </c>
       <c r="N59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E60" s="3">
         <v>17900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
@@ -4072,16 +4211,19 @@
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,40 +4293,43 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4193,19 +4338,19 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2800</v>
       </c>
       <c r="S62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>2800</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,61 +4589,64 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
@@ -4498,16 +4655,19 @@
         <v>400</v>
       </c>
       <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-22400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-22700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-31500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-32300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-33200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>700</v>
       </c>
       <c r="V76" s="3">
         <v>700</v>
       </c>
       <c r="W76" s="3">
+        <v>700</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5435,7 +5633,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,43 +6160,44 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5985,21 +6205,21 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,31 +6392,31 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6201,32 +6430,35 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>7200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,16 +850,22 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -916,16 +930,22 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>-2500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1044,90 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>700</v>
       </c>
       <c r="T12" s="3">
         <v>2200</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="V12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,50 +1200,56 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>-8600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,23 +1265,29 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1391,90 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3600</v>
       </c>
       <c r="S17" s="3">
         <v>1600</v>
       </c>
       <c r="T17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V17" s="3">
         <v>3500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2500</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-3600</v>
       </c>
       <c r="S18" s="3">
         <v>-1600</v>
       </c>
       <c r="T18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V18" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-2500</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,59 +1592,59 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G20" s="3">
         <v>6400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1657,14 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,85 +1672,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-23300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2400</v>
       </c>
       <c r="W21" s="3">
         <v>-400</v>
       </c>
       <c r="X21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1684,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1693,25 +1773,25 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1737,82 +1817,94 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-2400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-2400</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
       <c r="X26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-2400</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
       </c>
       <c r="X27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,59 +2552,59 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2617,94 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-2400</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
       </c>
       <c r="X33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-2400</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
       </c>
       <c r="X35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +3006,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,16 +3162,22 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3015,40 +3201,40 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,38 +3322,44 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3169,34 +3367,34 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>600</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
       </c>
       <c r="U45" s="3">
+        <v>600</v>
+      </c>
+      <c r="V45" s="3">
+        <v>700</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3204,82 +3402,94 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1000</v>
-      </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,19 +3562,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3376,58 +3592,64 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>300</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,19 +3882,25 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2100</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>2100</v>
@@ -3669,10 +3909,10 @@
         <v>2100</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3695,17 +3935,17 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
-      </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>100</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,312 +4186,338 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+        <v>2500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2500</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F59" s="3">
         <v>19000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F60" s="3">
         <v>22800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4296,68 +4582,74 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>24100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F66" s="3">
         <v>38300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>23600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>31300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>38200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>41800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
-      </c>
-      <c r="U66" s="3">
-        <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
       </c>
       <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-56200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-60200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-60300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-66100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-64200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-63900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-48800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-35400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-24300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-21800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-18800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-18400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-16000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-34200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-18100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-22400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-22700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-31500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-32300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-33200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-10600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-21800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-8200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-2400</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
       </c>
       <c r="X81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5636,10 +6034,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,62 +6612,62 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,46 +6837,52 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6433,32 +6893,38 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E100" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>13200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1100</v>
       </c>
       <c r="N100" s="3">
         <v>400</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>400</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>7200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,20 +860,23 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,11 +955,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-2500</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,77 +1071,80 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2200</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,38 +1223,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1245,14 +1265,14 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1271,11 +1291,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
@@ -1283,11 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1419,92 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
       <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1512,82 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
       <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,62 +1626,62 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,94 +1709,97 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1770,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1794,7 +1834,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>12100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>12100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,62 +2622,62 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,19 +3258,22 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3207,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3216,28 +3309,28 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,41 +3424,44 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3373,31 +3472,31 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3408,79 +3507,82 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,40 +3673,43 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E48" s="3">
         <v>19500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3610,35 +3718,35 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>300</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,22 +4005,25 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>2100</v>
@@ -3915,7 +4035,7 @@
         <v>2100</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3941,14 +4061,14 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,79 +4171,82 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E54" s="3">
         <v>36700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>100</v>
       </c>
       <c r="AA54" s="3">
         <v>100</v>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3000</v>
       </c>
       <c r="H57" s="3">
         <v>3000</v>
       </c>
       <c r="I57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,7 +4411,7 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>2500</v>
@@ -4286,212 +4420,218 @@
         <v>2500</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3200</v>
       </c>
       <c r="P59" s="3">
         <v>3200</v>
       </c>
       <c r="Q59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>400</v>
       </c>
       <c r="AB59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
@@ -4500,28 +4640,31 @@
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E61" s="3">
         <v>26900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4588,49 +4731,52 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E62" s="3">
         <v>18900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4639,19 +4785,19 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>2800</v>
       </c>
       <c r="V62" s="3">
         <v>2800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>2800</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,70 +5063,73 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E66" s="3">
         <v>56100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
@@ -4980,16 +5138,19 @@
         <v>400</v>
       </c>
       <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-35200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-34200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-22700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-31500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-32300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-33200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-21800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>700</v>
       </c>
       <c r="Y76" s="3">
         <v>700</v>
       </c>
       <c r="Z76" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6211,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -6040,7 +6239,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,43 +6833,43 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -6656,21 +6877,21 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,49 +7070,52 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6899,32 +7129,35 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>7200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,25 +870,31 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>2500</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,16 +974,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
       <c r="F10" s="3">
         <v>-2500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,77 +1101,83 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>800</v>
-      </c>
-      <c r="U12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>700</v>
       </c>
       <c r="W12" s="3">
         <v>2200</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Y12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,59 +1259,65 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-8600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1294,23 +1333,29 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3600</v>
       </c>
       <c r="V17" s="3">
         <v>1600</v>
       </c>
       <c r="W17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2500</v>
       </c>
       <c r="Z17" s="3">
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-3600</v>
       </c>
       <c r="V18" s="3">
         <v>-1600</v>
       </c>
       <c r="W18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-2500</v>
       </c>
       <c r="Z18" s="3">
         <v>-400</v>
       </c>
       <c r="AA18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,68 +1693,68 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G20" s="3">
         <v>8900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1700,8 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,103 +1782,109 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G21" s="3">
         <v>13600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-16100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-13300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z21" s="3">
         <v>-400</v>
       </c>
       <c r="AA21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1813,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1822,25 +1901,25 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1866,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-23400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z23" s="3">
         <v>-400</v>
       </c>
       <c r="AA23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z26" s="3">
         <v>-400</v>
       </c>
       <c r="AA26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-23400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z27" s="3">
         <v>-400</v>
       </c>
       <c r="AA27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,68 +2761,68 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2835,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z33" s="3">
         <v>-400</v>
       </c>
       <c r="AA33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z35" s="3">
         <v>-400</v>
       </c>
       <c r="AA35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,25 +3440,31 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3303,40 +3488,40 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,47 +3618,53 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3475,34 +3672,34 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>700</v>
-      </c>
-      <c r="V45" s="3">
-        <v>600</v>
       </c>
       <c r="W45" s="3">
         <v>700</v>
       </c>
       <c r="X45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3510,91 +3707,103 @@
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F46" s="3">
         <v>11800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>100</v>
       </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,28 +3885,34 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F48" s="3">
         <v>21500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>15000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -3709,58 +3924,64 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
+        <v>500</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
         <v>500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>300</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,28 +4241,34 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2100</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>2100</v>
@@ -4038,10 +4277,10 @@
         <v>2100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -4064,17 +4303,17 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F54" s="3">
         <v>33600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>36700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>100</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4414,263 +4681,281 @@
         <v>1500</v>
       </c>
       <c r="F58" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>2500</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>22800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>400</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
       <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F61" s="3">
         <v>25000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>12600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4734,77 +5019,83 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F62" s="3">
         <v>11900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>15500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>12100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>25300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F66" s="3">
         <v>48300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>56100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>54300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>38300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>27800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>38200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>41800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>22300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>400</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
       </c>
       <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-75400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-60200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-60300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-66100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-64200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-63900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-39300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-48800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-32600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-27500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-24300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-23600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-23400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-21800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-18800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-15400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-19400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-35200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-34200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-22400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-22700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-31500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-32300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-33200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-21800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z81" s="3">
         <v>-400</v>
       </c>
       <c r="AA81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,19 +6607,21 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -6242,10 +6639,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-3200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,80 +7263,82 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
+        <v>-6400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,55 +7526,61 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7132,32 +7591,38 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>15700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>13200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1100</v>
       </c>
       <c r="Q100" s="3">
         <v>400</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>400</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>7200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>BHLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,29 +880,32 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,29 +972,32 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,77 +1121,80 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2200</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>100</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,47 +1282,50 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-8600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1313,14 +1333,14 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,11 +1359,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1351,11 +1371,14 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
       <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-100</v>
       </c>
       <c r="AD18" s="3">
         <v>-100</v>
       </c>
       <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,71 +1727,71 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,112 +1819,115 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
       </c>
       <c r="AD21" s="3">
         <v>-100</v>
       </c>
       <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1898,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1922,7 +1962,7 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1951,120 +1991,126 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,71 +2831,71 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F32" s="3">
         <v>7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,28 +3536,31 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3494,7 +3587,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3503,28 +3596,28 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
+      <c r="AB43" s="3">
+        <v>0</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3636,38 +3735,38 @@
         <v>6500</v>
       </c>
       <c r="F45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -3678,31 +3777,31 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
@@ -3713,88 +3812,91 @@
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>100</v>
       </c>
       <c r="AD46" s="3">
         <v>100</v>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,49 +3996,52 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E48" s="3">
         <v>25700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -3942,35 +4050,35 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <v>500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>300</v>
       </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
       <c r="AC48" s="3">
         <v>0</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,31 +4364,34 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>2100</v>
@@ -4283,7 +4403,7 @@
         <v>2100</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -4309,14 +4429,14 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,88 +4548,91 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E54" s="3">
         <v>36900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>100</v>
       </c>
       <c r="AD54" s="3">
         <v>100</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,102 +4710,106 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
       </c>
       <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
@@ -4687,7 +4821,7 @@
         <v>1500</v>
       </c>
       <c r="H58" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>2500</v>
@@ -4696,230 +4830,236 @@
         <v>2500</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>3200</v>
       </c>
       <c r="S59" s="3">
         <v>3200</v>
       </c>
       <c r="T59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
       <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>400</v>
       </c>
       <c r="AE59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4928,37 +5068,40 @@
         <v>400</v>
       </c>
       <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E61" s="3">
         <v>32100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -5025,58 +5168,61 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -5085,19 +5231,19 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
-      </c>
-      <c r="X62" s="3">
-        <v>2800</v>
       </c>
       <c r="Y62" s="3">
         <v>2800</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>2800</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,79 +5536,82 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E66" s="3">
         <v>56200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>400</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
@@ -5462,16 +5620,19 @@
         <v>400</v>
       </c>
       <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-75400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-15600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-15400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-19200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-26200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-19400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-35200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-34200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-22700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-31500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-32300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-33200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-21800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>1400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>700</v>
       </c>
       <c r="AB76" s="3">
         <v>700</v>
       </c>
       <c r="AC76" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,22 +6807,23 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -6645,7 +6844,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-100</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
       <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,61 +7485,62 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -7327,21 +7548,21 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,58 +7759,61 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7597,32 +7827,35 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4700</v>
+        <v>40100</v>
       </c>
       <c r="E100" s="3">
         <v>4700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>7200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>1500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>900</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
